--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3323133333333333</v>
+        <v>0.05692066666666667</v>
       </c>
       <c r="H2">
-        <v>0.9969399999999999</v>
+        <v>0.170762</v>
       </c>
       <c r="I2">
-        <v>0.2302327407427935</v>
+        <v>0.07235837399807114</v>
       </c>
       <c r="J2">
-        <v>0.2302327407427935</v>
+        <v>0.07235837399807114</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.24110266666668</v>
+        <v>15.22275333333334</v>
       </c>
       <c r="N2">
-        <v>258.723308</v>
+        <v>45.66826</v>
       </c>
       <c r="O2">
-        <v>0.8611915593241938</v>
+        <v>0.5308207094915162</v>
       </c>
       <c r="P2">
-        <v>0.861191559324194</v>
+        <v>0.5308207094915161</v>
       </c>
       <c r="Q2">
-        <v>28.65906829750222</v>
+        <v>0.8664892682355557</v>
       </c>
       <c r="R2">
-        <v>257.93161467752</v>
+        <v>7.798403414120001</v>
       </c>
       <c r="S2">
-        <v>0.1982744930077692</v>
+        <v>0.0384093234233086</v>
       </c>
       <c r="T2">
-        <v>0.1982744930077692</v>
+        <v>0.03840932342330859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3323133333333333</v>
+        <v>0.05692066666666667</v>
       </c>
       <c r="H3">
-        <v>0.9969399999999999</v>
+        <v>0.170762</v>
       </c>
       <c r="I3">
-        <v>0.2302327407427935</v>
+        <v>0.07235837399807114</v>
       </c>
       <c r="J3">
-        <v>0.2302327407427935</v>
+        <v>0.07235837399807114</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>28.168259</v>
       </c>
       <c r="O3">
-        <v>0.09376142829643225</v>
+        <v>0.3274110996898236</v>
       </c>
       <c r="P3">
-        <v>0.09376142829643226</v>
+        <v>0.3274110996898236</v>
       </c>
       <c r="Q3">
-        <v>3.120229347495555</v>
+        <v>0.5344520270397778</v>
       </c>
       <c r="R3">
-        <v>28.08206412746</v>
+        <v>4.810068243358</v>
       </c>
       <c r="S3">
-        <v>0.02158695061264651</v>
+        <v>0.02369093480247601</v>
       </c>
       <c r="T3">
-        <v>0.02158695061264651</v>
+        <v>0.02369093480247601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3323133333333333</v>
+        <v>0.05692066666666667</v>
       </c>
       <c r="H4">
-        <v>0.9969399999999999</v>
+        <v>0.170762</v>
       </c>
       <c r="I4">
-        <v>0.2302327407427935</v>
+        <v>0.07235837399807114</v>
       </c>
       <c r="J4">
-        <v>0.2302327407427935</v>
+        <v>0.07235837399807114</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.511080000000001</v>
+        <v>4.065595333333333</v>
       </c>
       <c r="N4">
-        <v>13.53324</v>
+        <v>12.196786</v>
       </c>
       <c r="O4">
-        <v>0.04504701237937385</v>
+        <v>0.1417681908186603</v>
       </c>
       <c r="P4">
-        <v>0.04504701237937386</v>
+        <v>0.1417681908186603</v>
       </c>
       <c r="Q4">
-        <v>1.499092031733333</v>
+        <v>0.2314163967702222</v>
       </c>
       <c r="R4">
-        <v>13.4918282856</v>
+        <v>2.082747570932</v>
       </c>
       <c r="S4">
-        <v>0.01037129712237779</v>
+        <v>0.01025811577228654</v>
       </c>
       <c r="T4">
-        <v>0.01037129712237779</v>
+        <v>0.01025811577228654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.429314</v>
       </c>
       <c r="I5">
-        <v>0.3300849395169671</v>
+        <v>0.6056548703615503</v>
       </c>
       <c r="J5">
-        <v>0.3300849395169671</v>
+        <v>0.6056548703615503</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.24110266666668</v>
+        <v>15.22275333333334</v>
       </c>
       <c r="N5">
-        <v>258.723308</v>
+        <v>45.66826</v>
       </c>
       <c r="O5">
-        <v>0.8611915593241938</v>
+        <v>0.5308207094915162</v>
       </c>
       <c r="P5">
-        <v>0.861191559324194</v>
+        <v>0.5308207094915161</v>
       </c>
       <c r="Q5">
-        <v>41.08853847230134</v>
+        <v>7.252698152626667</v>
       </c>
       <c r="R5">
-        <v>369.7968462507121</v>
+        <v>65.27428337364</v>
       </c>
       <c r="S5">
-        <v>0.2842663637720491</v>
+        <v>0.3214941479923104</v>
       </c>
       <c r="T5">
-        <v>0.2842663637720492</v>
+        <v>0.3214941479923103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.429314</v>
       </c>
       <c r="I6">
-        <v>0.3300849395169671</v>
+        <v>0.6056548703615503</v>
       </c>
       <c r="J6">
-        <v>0.3300849395169671</v>
+        <v>0.6056548703615503</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>28.168259</v>
       </c>
       <c r="O6">
-        <v>0.09376142829643225</v>
+        <v>0.3274110996898236</v>
       </c>
       <c r="P6">
-        <v>0.09376142829643226</v>
+        <v>0.3274110996898236</v>
       </c>
       <c r="Q6">
         <v>4.473476327147333</v>
@@ -818,10 +818,10 @@
         <v>40.261286944326</v>
       </c>
       <c r="S6">
-        <v>0.03094923538825229</v>
+        <v>0.1982981271375727</v>
       </c>
       <c r="T6">
-        <v>0.03094923538825229</v>
+        <v>0.1982981271375727</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.429314</v>
       </c>
       <c r="I7">
-        <v>0.3300849395169671</v>
+        <v>0.6056548703615503</v>
       </c>
       <c r="J7">
-        <v>0.3300849395169671</v>
+        <v>0.6056548703615503</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.511080000000001</v>
+        <v>4.065595333333333</v>
       </c>
       <c r="N7">
-        <v>13.53324</v>
+        <v>12.196786</v>
       </c>
       <c r="O7">
-        <v>0.04504701237937385</v>
+        <v>0.1417681908186603</v>
       </c>
       <c r="P7">
-        <v>0.04504701237937386</v>
+        <v>0.1417681908186603</v>
       </c>
       <c r="Q7">
-        <v>2.14924993304</v>
+        <v>1.937004109422667</v>
       </c>
       <c r="R7">
-        <v>19.34324939736</v>
+        <v>17.433036984804</v>
       </c>
       <c r="S7">
-        <v>0.01486934035666568</v>
+        <v>0.08586259523166721</v>
       </c>
       <c r="T7">
-        <v>0.01486934035666569</v>
+        <v>0.08586259523166721</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6346286666666666</v>
+        <v>0.2532906666666667</v>
       </c>
       <c r="H8">
-        <v>1.903886</v>
+        <v>0.7598720000000001</v>
       </c>
       <c r="I8">
-        <v>0.4396823197402394</v>
+        <v>0.3219867556403786</v>
       </c>
       <c r="J8">
-        <v>0.4396823197402393</v>
+        <v>0.3219867556403785</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>86.24110266666668</v>
+        <v>15.22275333333334</v>
       </c>
       <c r="N8">
-        <v>258.723308</v>
+        <v>45.66826</v>
       </c>
       <c r="O8">
-        <v>0.8611915593241938</v>
+        <v>0.5308207094915162</v>
       </c>
       <c r="P8">
-        <v>0.861191559324194</v>
+        <v>0.5308207094915161</v>
       </c>
       <c r="Q8">
-        <v>54.73107599720978</v>
+        <v>3.855781340302224</v>
       </c>
       <c r="R8">
-        <v>492.579683974888</v>
+        <v>34.70203206272001</v>
       </c>
       <c r="S8">
-        <v>0.3786507025443755</v>
+        <v>0.1709172380758972</v>
       </c>
       <c r="T8">
-        <v>0.3786507025443756</v>
+        <v>0.1709172380758971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6346286666666666</v>
+        <v>0.2532906666666667</v>
       </c>
       <c r="H9">
-        <v>1.903886</v>
+        <v>0.7598720000000001</v>
       </c>
       <c r="I9">
-        <v>0.4396823197402394</v>
+        <v>0.3219867556403786</v>
       </c>
       <c r="J9">
-        <v>0.4396823197402393</v>
+        <v>0.3219867556403785</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>28.168259</v>
       </c>
       <c r="O9">
-        <v>0.09376142829643225</v>
+        <v>0.3274110996898236</v>
       </c>
       <c r="P9">
-        <v>0.09376142829643226</v>
+        <v>0.3274110996898236</v>
       </c>
       <c r="Q9">
-        <v>5.958794883830445</v>
+        <v>2.378252366983112</v>
       </c>
       <c r="R9">
-        <v>53.629153954474</v>
+        <v>21.404271302848</v>
       </c>
       <c r="S9">
-        <v>0.04122524229553345</v>
+        <v>0.1054220377497749</v>
       </c>
       <c r="T9">
-        <v>0.04122524229553345</v>
+        <v>0.1054220377497748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6346286666666666</v>
+        <v>0.2532906666666667</v>
       </c>
       <c r="H10">
-        <v>1.903886</v>
+        <v>0.7598720000000001</v>
       </c>
       <c r="I10">
-        <v>0.4396823197402394</v>
+        <v>0.3219867556403786</v>
       </c>
       <c r="J10">
-        <v>0.4396823197402393</v>
+        <v>0.3219867556403785</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.511080000000001</v>
+        <v>4.065595333333333</v>
       </c>
       <c r="N10">
-        <v>13.53324</v>
+        <v>12.196786</v>
       </c>
       <c r="O10">
-        <v>0.04504701237937385</v>
+        <v>0.1417681908186603</v>
       </c>
       <c r="P10">
-        <v>0.04504701237937386</v>
+        <v>0.1417681908186603</v>
       </c>
       <c r="Q10">
-        <v>2.862860685626667</v>
+        <v>1.029777352376889</v>
       </c>
       <c r="R10">
-        <v>25.76574617064</v>
+        <v>9.267996171392001</v>
       </c>
       <c r="S10">
-        <v>0.01980637490033037</v>
+        <v>0.04564747981470653</v>
       </c>
       <c r="T10">
-        <v>0.01980637490033037</v>
+        <v>0.04564747981470652</v>
       </c>
     </row>
   </sheetData>
